--- a/experiments/optics-ajk/instructor-large/0.1/prediction.xlsx
+++ b/experiments/optics-ajk/instructor-large/0.1/prediction.xlsx
@@ -468,47 +468,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,27 +538,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,57 +608,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,37 +698,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,107 +738,107 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,67 +848,67 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,107 +958,107 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,57 +1078,57 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,17 +1218,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,97 +1238,97 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,117 +1338,117 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,47 +1508,47 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,17 +1578,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,17 +1718,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,47 +1778,47 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,57 +1838,57 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,57 +1908,57 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,17 +1968,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,27 +1988,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,37 +2038,37 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,37 +2088,37 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,17 +2128,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,117 +2148,117 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,87 +2278,87 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,67 +2368,67 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,3831 +2438,3831 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>121</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>121</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>121</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>121</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>122</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>122</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>18</v>
+        <v>135</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>124</v>
+        <v>53</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>126</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>127</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>127</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>64</v>
+        <v>122</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>128</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>128</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>129</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>115</v>
+        <v>66</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>112</v>
+        <v>53</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>112</v>
+        <v>51</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>131</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>131</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>132</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>107</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>32</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>133</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>133</v>
+        <v>34</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>134</v>
+        <v>32</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>134</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>134</v>
+        <v>47</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>134</v>
+        <v>47</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>135</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>135</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>136</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>91</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>120</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>120</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>120</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>110</v>
+        <v>69</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>113</v>
+        <v>70</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>119</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>119</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>56</v>
+        <v>143</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>55</v>
+        <v>143</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>78</v>
+        <v>144</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>139</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>140</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>141</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>142</v>
+        <v>29</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>142</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>144</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>145</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>146</v>
+        <v>10</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>146</v>
+        <v>10</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="584">
